--- a/500all/speech_level/speeches_CHRG-114hhrg25099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Good afternoon, everyone, and the Subcommittee will come to order. Chairman Wenstrup has a scheduling conflict and apologizes for not being able to join us today. I am pleased that we were still able to reschedule this important hearing following the snowstorm that caused us to postpone it last month.    The subject of today's hearing is the Loan Guaranty Service of the Department of Veterans Affairs. The major mission of this service is the administration of the VA Home Loan Program. This benefit was originally authorized by the Servicemembers' Readjustment Act of 1944 and has provided over 22 million loans to veterans since its inception. While the home loan program is a wonderful benefit that helps veterans achieve their piece of the American dream, it is also a win-win for taxpayers. Unlike most other VA benefits programs, the home loan program operates as a partnership between the VA and the private mortgage industry. It is because of this partnership and the VA's high underwriting standards that VA-backed loans consistently have one of the lowest foreclosure and delinquency rates in the country.    While the benefit provides a great service to veterans, there is always room for improvement. I am concerned there are veterans who are unaware of this benefit and I look forward to hearing from the VA about their outreach efforts. I am also concerned that the current cap on loan guaranty amounts excludes as many as 12,000 veterans who live in high cost areas from using this benefit. Yesterday, the House passed a version of Mr. Zeldin's legislation that removed this cap. I am hopeful that our colleagues in the Senate will consider this proposal quickly and send it to the President's desk.    The other issue we will examine this afternoon is the administration of VA's Specially Adaptive Housing Program that provides grant funding for severely injured veterans to adapt their homes to make them more accessible for their needs. Some of our witnesses have raised concerns about the amount of paperwork and processing delays associated with this benefit. While I understand there is a need to examine each veteran's circumstances to appropriately fund the adaptation that fits their needs, we must strive to improve timeliness of service for all veterans.    Finally, I would like to commend Mr. Frueh and the staff of VA's Home Loan Guaranty Service for their dedication and their willingness to work with the Members and staff of this Subcommittee. They truly represent the model for positive interactions with Congress, and I wish other parts of the department would take a page out of their play book.    With that, it gives me great pleasure to recognize Mr. Takano for any opening remarks he may have.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. The VA's Home Loan Guaranty Program leverages the non-government world of realtors, lenders, builders, and servicers with the veterans who want to buy a home. Because the government protects lenders from loss on these loans, and because of the safeguards built into the law barring lenders from entering into loans that are risky, more VA loans go to closing than any other product in the industry. Veterans are able to find the homes they want and get into them with a minimum of time and hassle, clearly a win-win for all involved.    Today's hearing is a check-in on this popular program as well as on the Specially Adaptive Housing Program, which helps service-connected disabled veterans build or adapt homes so they can live with greater ease after being catastrophically injured. The Specially Adaptive Housing Program has seen an increase of 65 percent since fiscal year 2013. Today we will hear how VA's improvements in outreach have contributed to this increase, and what is needed in terms of funding and staffing to meet the challenges ahead if growth continues at that pace.    Both programs embody successful public-private partnerships, and I think that makes all of us happy here. I want to thank the witnesses for being here today and I look forward to their testimony. Thank you, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ansley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ansley. Thank you, Representative Costello, Ranking Member Takano, and Members of the Subcommittee. Paralyzed Veterans of America would like to thank you for the opportunity to testify this afternoon regarding the Department of Veterans Affairs Loan Guaranty and Specially Adaptive Housing Grant Programs. Our testimony this afternoon will focus on VA's Adaptive Housing Grant Programs.    PVA's members are veterans who are catastrophically disabled by a spinal cord injury or disease. Many of them have benefitted from VA's Specially Adaptive Housing or SAH Grant Program. Providing a catastrophically disabled veteran with an accessible home is an investment that pays dividends in lower health and long term care costs. We hope that every effort will be made to strengthen VA's Adaptive Housing Program and increase the benefits available for these veterans by making investments in staffing, streamlining and expediting grant processing for veterans with terminal illnesses, and improving outreach.    Investments in staffing are needed to increase the number of SAH agents serving veterans. In many parts of the country, inadequate staffing contributes to delays in processing grants and results in poor customer service for veterans. According to PVA's service officers, many veterans have a difficult time contacting their SAH agents as phone calls and emails are not returned in a timely manner. PVA believes that veterans' inability to connect with their SAH agents is not only unfair to them, but also to these agents who are sincerely trying to serve veterans despite too many tasks and too few resources. Insufficient staffing also leads to retention problems as agents leave their positions due to excessive workload and extensive travel requirements. PVA's service officers report frequent turnover, which overburdens agents who must carry increased workloads when other agents leave. In addition, some agents cover large geographic areas and travel hundreds of miles one way to meet the eligible veterans, which also leads to delays in responding to veterans and processing grants.    One of the biggest challenges PVA encounters in the SAH Grant Program is the length of time it takes for grants to be processed and approved. This is especially true for veterans living with amyotrophic lateral sclerosis, or ALS. Veterans with ALS are critical users of the SAH Grant Program and the housing adaptation assistance it provides. VA's SAH grant process, however, is not well suited to veterans with rapidly changing diseases like ALS. As a result, it may be difficult for a veteran with ALS to get the adaptations he or she needs when he or she needs them.    In its recommendations to the 114th Congress, the coauthors of the independent budget, which include PVA, Disabled American Veterans, and the Veterans of Foreign Wars, recommended that VA expedite these grants for veterans who are terminally ill, including those who have ALS. This includes encouraging the use of waivers to prevent adaptations that are unneeded due to the veteran's level of disability.    Ultimately, the SAH Grant Program must be flexible enough to assist veterans who have relatively static disabilities such as spinal cord injuries, and those who have rapidly changing diseases such as ALS.    Delays in processing grants for veterans with diseases such as ALS can also prevent these veterans' families from accessing the mortgage protection that is available through the VA's Veterans Mortgage Life Insurance, or VMLI program. The VMLI program is designed to provide a mortgage insurance option for veterans who otherwise would not be able to seek such coverage. Coverage begins when an eligible veteran receives final approval of the grant. VMLI must be available to these veterans earlier in the grant process. One incremental change would be to approve VMLI at the same time as the final grant instead of waiting until funding is in escrow. Another option would be to approve those that are eligible for VMLI coverage as soon as VA determines that they meet all applicable requirements with the exception of the final approval of the adaptive housing grant.    PVA strongly supports VA's adaptive housing programs because the benefits available through this program are not only life-changing, but also life-saving.    When a veteran is determined by VA to be eligible for ancillary benefits including adaptive housing, VA provides the veteran with a decision that includes information about these benefits, and such a notice typically includes the requisite forms to apply. We have noticed, however, that the required forms are not always provided with the notice of eligibility and for veterans who are not represented by a veterans service organization like PVA, it may be difficult for them to navigate the sea of benefits for which they are eligible.    PVA provides significant outreach related to the benefits of adaptive housing. Our service officers communicate with our veterans to ensure they understand the benefit and the importance of the program. We also seek to increase awareness by providing information on our Web site, and in our meetings, and in our membership magazine. We also work to provide information about how to design a wheelchair accessible for home and we support efforts to increase affordable accessible housing for all people with disabilities.    We appreciate the Subcommittee's focus on VA's adaptive housing program. We hope additional resources will be available, and we thank you for the opportunity to share our thoughts today.    [The prepared statement of Heather Ansley appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you. Mr. Meglathery?</t>
   </si>
   <si>
-    <t>Meglathery</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meglathery. Representative Costello, Ranking Member Takano, and other distinguished Members of the Subcommittee, thank you for giving VetsFirst the opportunity to testify regarding VA's Loan Guaranty and Specially Adaptive Housing SAH Grant Programs.    VetsFirst has represented our disabled veterans, their families, and their caretakers since 1946 when paralyzed World War II veterans came together to claim their rights. We advocate for the programs, services, and disability rights that help all generations of veterans with disabilities remain independent and fulfill their desire to reintegrate into society. Today through our parent organization, United Spinal Association, we are not only a VA-recognized national veterans service organization, we are a leader in advocacy for all people with disabilities. We are honored to have the opportunity to testify about the VA's Loan Guaranty and SAH Grant Programs and offer some suggestions for improvement.    The VA's Loan Guaranty Program is a critical benefit to veterans across the Nation and it is an example of what the VA is doing right by veterans. More than 80 percent of veterans utilize this program as a result of its affordability and ease of use. VA's delinquency rate is quite low as a result of the holistic approach to ascertain the veteran's income based on monthly expenses. On a personal note, I have taken advantage of this benefit, and it allowed me to purchase a home in an area with an extremely high cost of living.    From the perspective of the VSO, this benefit is one of ease. We just determine the eligibility of the veteran, and the lender does the remainder of the work. It is an example of a program that supports VetsFirst's core principle one of independence, and core principle two of timely access to VA benefits.    VetsFirst supports all programs that are designed to enhance the independence of veterans with disabilities. For this reason, community integration and independence is our first core principle. The ability to own a home that is adapted to the unique needs of each individual is critical for both the emotional and physical well-being of the veteran. VetsFirst wholeheartedly backs SAH. We would like to highlight areas where we see that improvements are warranted and would make this program even more successful.    Currently, both SAH and Vocational Rehabilitation and Employment Program are in the business of housing modifications for veterans. VetsFirst believes this is a less efficient way to utilize limited resources. SAH staff are experts in the arena of home modification. While VR&amp;E staff are hardworking and diligent, they are not solely focused on this benefit. Additionally, as you know from a prior hearing, VR&amp;E staff are currently overworked with large caseloads supporting vocational rehabilitation. By taking home modification off their portfolio, VR&amp;E would be able to focus on their area of expertise.    In the last few years, SAH has seen an increase in approved grants. The addition of VR&amp;E's caseload would add to that growing number. For this reason, VetsFirst would like to emphasize its desire to see that SAH is fully funded and staffed to support this upward trend, and would like to see that commensurate with any addition of the VR&amp;E caseload.    VetsFirst does not advocate removing VR&amp;E from the process altogether. If a veteran is getting vocational rehabilitation in conjunction with home modifications, VetsFirst recommends a three-way dialogue amongst the veterans, SAH, and VR&amp;E personnel.    Currently, SAH gives the veterans the chance to choose which contractor to use for home modification. VR&amp;E does not. We recommend shifting VR&amp;E's home modification to SAH. Giving the veteran the choice of contractor is important on several levels. It allows the veteran to have the independence they would seek and it allows them to quickly address any problems or complaints with the intent of not having to bring in a third party to settle the dispute.    With regard to grant money that is funded, VetsFirst is concerned that the benefit is not a large enough amount. SAH has been indexed based on inflation. However, we are concerned that the baseline was too low. Currently, the maximum amount of a grant is just under $74,000. Often, with that money, the veteran is forced to make choices as to what to modify and what not, or pay the remainder out of pocket. Another point of concern is the amount of the grant is not based on the cost-of-living, but rather standard across the board. Anyone who has lived in the Washington, D.C. metro area is aware that the cost of living here, for instance, is a lot higher than in Boise, Idaho, for example.    The last point I have to make about SAH based on feedback from my VSOs and our online help desk, Ask VetsFirst, is that the SAH process takes longer than desired. This should not be seen as a criticism of the individual SAH staff members as they work in the local community. It is a way to identify an opportunity to find a solution for rapid response.    VetsFirst would like to express its thanks for the opportunity to testify today on the Loan Guaranty and SAH Programs. We appreciate your leadership on behalf of this Nation's veterans. I would be happy to answer questions.    [The prepared statement of Ross Meglathery appears in the Appendix]</t>
   </si>
   <si>
@@ -94,34 +82,19 @@
     <t xml:space="preserve">    Mr. Costello. I call the hearing back to order and recognize Mr. Danis on behalf of the Mortgage Bankers Association.</t>
   </si>
   <si>
-    <t>Danis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Danis. Chairman Costello and Members of the Subcommittee, thank you for the opportunity to testify this afternoon on VA's Home Loan Guaranty Program.    I have been in the mortgage business for 23 years and have worked with the VA Home Loan Guaranty Program the entire time. My company, Residential Mortgage Corporation, is an independent mortgage lender located in Fayetteville, North Carolina. Approximately 70 percent of the loans we issue are VA loans. In North Carolina with our large military population centered around Fort Bragg, loans guaranteed by VA are an important part of our market. In fact, their use is steadily increasing. In the latest fiscal year alone, more than 14,000 VA purchase loans were originated in our state, up 13 percent from 2014.    For many reasons I am a staunch advocate of the VA Home Loan Guaranty Program. You see, the homes my parents purchased and where my siblings and I were raised were bought with VA loans. In keeping with our family tradition of military service, I served my country, and my first home was financed with a VA loan.    Much like our company, MBA has been a consistent supporter of the VA Home Loan Guaranty Program. Our industry is united in the belief that the VA remains an important and viable program for veterans and active duty military personnel. Providing 100 percent LTV loans is a tremendous benefit to our veterans who have dedicated their lives to serving our country and is crucial in military communities. But as credit markets have tightened and loan underwriting has become stricter, finding low downpayment mortgages has become increasingly difficult.    Despite most VA borrowers not having skin in the game, VA loans have continued to outperform their counterparts. In fact, the VA portfolio has been able to sustain production, and weather the turbulent market largely due to its historically conservative underwriting standards which includes a residual income test. VA mortgages have always been fully documented, and fully underwritten loans and owner occupied properties. That is why they continue to perform so well today.    Additionally, the borrowers who use the VA program are as diverse as the entire U.S. population. According to VA's 2015 Annual Benefits Report, African Americans comprise 10.6 percent of VA loans; American Indian and Alaskan Natives 8.3; Hispanics 7.8; and Asian and Pacific Islanders 2.6 percent.    In our written testimony, MBA offers a number of policy recommendations for improving VA programs. Chief, among them, we urge the VA to issue a final qualified mortgage rule that establishes clear bright lines for VA lending, and once the rule is issued, we hope that they will permit an appropriate implementation period so that smaller lenders like our company have the time we need to test our systems and ensure we are in full compliance.    MBA also calls on Congress to reauthorize the extended foreclosure protections afforded to active duty military by the Servicemembers' Civil Relief Act, or SCRA. During the financial crisis, SCRA's foreclosure moratorium for active duty military members was extended from three years to a year. Unfortunately, that important consumer protection lapsed at the end of last year. In our view, it should be extended immediately and ultimately made permanent.    I want to conclude my testimony by commending VA and its excellent staff for the collaborative approach they take to policy making, as well as their overall emphasis on maintaining open lines of communication with our industry. We are grateful for our strong partnership, and look forward to continuing to work together on the issues I have outlined here today.    Once again, I want to thank you for holding this hearing and shining a spotlight on the importance of this vital path to home ownership. We look forward to working with you to help our members of our military, past and present, achieve the American dream.    [The prepared statement of James H. Danis appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Danis. Ms. Meadows testifying on behalf of the National Association of Realtors, welcome.</t>
   </si>
   <si>
-    <t>Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meadows. Good afternoon. I have been a realtor in North Central Florida for 33 years. I serve in a volunteer position as the 2016 Vice President of the National Association of Realtors, and represent its more than one million members working in all aspects of real estate.    The National Association of Realtors is a strong supporter of housing opportunities for veterans. According to the U.S. Census, there were 19.3 million veterans in the United States in 2014 and 2015, and one in five home buyers was a veteran or active duty servicemember according to our NAR survey.    In 2015, the homeownership rate was 76 percent for veterans, more than 12 points above the national average. The Department of Veterans Affairs Home Loan Guaranty Program serves a large population and has been doing it well for over 70 years, including in the aftermath of the recent recession. VA's strong, yet flexible underwriting allows veterans the ability to purchase a home of their own without depleting their savings. More than 82 percent of veterans utilize the zero downpayment option provided by the VA.    Despite this VA delinquency, rates are very low, comparable even to today's tight conventional lending. Despite all the talk about the skin in the game, loans with appropriate underwriting, especially VA's use of the residual income test, and zero downpayment can successfully balance risk, and provide sustainable homeownership.    A realtor in Atlanta once told me the story of a veteran who lost his job, and as a result his home, during the Great Recession. When he found a new job, he moved with his family to Atlanta. He worked to rebuild his credit and was able to use his VA guaranty to buy a home for his family just two years after being out of work and down on his luck. This would have been impossible without the VA.    VA also protects their borrowers. Extensive counseling, and active negotiating helps veterans who run into financial difficulty. Since 2009, the VA has prevented more than half a million veterans and their survivors from losing their homes, while saving our taxpayers more than $16 billion in claims payments.    NAR also supports grant programs that allow disabled veterans to own a home that accommodates their needs. VA provides two types of grants to servicemembers and veterans with service-connected disabilities to help purchase or construct an adapted home or modify an existing home to accommodate a disability. These grants provide a significant benefit that allows our disabled veterans to retain their independence.    We support the comments by the two veterans service organizations urging that staffing and financial levels are sufficient to operate the program efficiently.    In recent years, this Committee has made tweaks to the home loan program to make it even more useful for veterans. The National Association of Realtors is here today to offer several other changes that could further enhance the program. Number one, consider higher cost loan limits. The VA Home Loan Guaranty Program is unique. It is not simply a Federal loan program, it is an entitlement promised to our military members in return for their service to our Nation. Veterans should be able to purchase a home wherever they choose to live and should not be prevented from using their entitlement due to the low loan limits. We urge this Committee to increase the VA loan limits and not penalize veterans for geographic differences in the housing market.    Number two, VA fee requirements. NAR believes that VA borrowers should be allowed to negotiate fees with sellers, just as non-VA buyers do, as part of the home purchase transaction. A realtor in Ohio recalled a client who wanted to use his VA benefit to purchase his first home. His lender tried to discourage him from using the VA, saying it was too time consuming and complicated. Moreover, he lost offers on the first several homes he bid on because the seller did not want to deal with the VA requirements. While the veteran was able to buy the home, he ended up using FHA and paying 3.5 percent downpayment to get the home he wanted. We urge VA to create a level playing field and provide veterans with the flexibility to negotiate all fees so they are not disadvantaged when trying to buy a home.    Number three, incentivize a program for renovation and rehabilitation. NAR urges the U.S. Department of Veterans Affairs to incentivize lenders to use existing authority to offer a veterans renovation pilot program, similar to the FHA's 203(k) Program. The 203(k) Program provides a loan for post-renovation appraised value. It is a safe and viable way for veterans to purchase a home that is in need of renovation while still using their guaranty.    The National Association of Realtors strongly supports the VA Home Loan Guaranty Program and the Specially Adaptive Housing Grants. It is our hope that the Subcommittee will support our recommendations for enhancing and improving the VA Home Loan Guaranty Program, so it may be a real benefit to those who bravely served our country.    I would also like to thank the Members of this Subcommittee. Each of you have served your communities and our Nation's veterans very well in areas such as protecting private property rights, advocates for affordable housing, the disabled, domestic violence victims, and those that are less fortunate than us. It has been an honor and I thank you for the opportunity just to be here today.    [The prepared statement of Sherri Meadows appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Ms. Meadows. Mr. Frueh, who is the Director of the VA's Loan Guaranty Service, welcome.</t>
   </si>
   <si>
-    <t>Frueh</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Frueh. Thank you, Mr. Chairman, Ranking Member Takano, and Members of the Subcommittee. Thank you for this opportunity to appear before you today and discuss the status and accomplishments of the Loan Guaranty Program and the Specially Adaptive Housing Program.    Our program's mission is a very simple one. We work to maximize veterans' and servicemembers' opportunity to obtain, retain, and adapt homes. However, our program does not generally make loans, build or sell homes, service loans, nor do we build adapted homes. Instead, we rely on lenders. We rely on realtors, appraisers, servicers, builders, and many others in the mortgage industry to help us deliver these benefits that our veterans have earned, many at great sacrifice.    We have worked relentlessly to increase our program's efficiency and effectiveness by delegating functions to our mortgage industry stakeholders. And I would like to take this opportunity to thank my colleagues at the Mortgage Bankers Association, the National Association of Realtors, and others like the National Association of Home Builders and the Appraisal Institute that have worked with us over the years to help make our program work better for our Nation's veterans.    To ensure this relationship is effective, we maintain a robust oversight and risk management program to secure a world class veteran experience, ensuring these private sector stakeholders adhere to our program goals, values, statutes, and regulations. Our work centers on creating success on all sides of the program. We work constantly to remove barriers veterans may face when using their benefits and ensure that veterans experience high quality consistent services no matter where they live. This work ranges from in home grant consultations with SAH eligible veterans and their families, to creating informational YouTube videos and the Google Hangout feeds, to making prudent policy changes that facilitate timely appraisal and loan closings, more efficient SAH grant processing, or innovative loss mitigation efforts.    We also work to ensure our program is easy to understand and at the forefront of industry processes and technology so that our private sector stakeholders succeed in their missions to make and service loans, construct or renovate homes, and manage and sell properties. On this front, we facilitate daily electronic transmission of loan and property data, we established permanent liaisons to all of the lenders and servicers across the Nation, and we hold regular forums, trainings, and calls, so stakeholders have open access to our leadership to ask questions, and obtain realtime answers and timely explanations of program or industry changes. We built systems that streamlined the flow of information between the industry and VA and provide analytical tools that decrease the time from application to closing so veterans benefit directly.    Through these strong partnerships, our focus on veterans, and our continuous drive to innovate and enhance operations and performance, we have built a high performing program that works for veterans, our stakeholders, and the American taxpayer. We have seen tremendous results from our efforts in removing barriers and enabling access. For the past few years, VA loans have equaled or exceeded industry benchmarks for time to close, percent of applications that actually do close, serious delinquency rate, and foreclosure inventory rate. We know our approach works because by creating ways to help our industry partners more effectively deliver these benefits, they have responded by offering veterans an interest rate lower than that for any other type of loan.    Veterans prove our approach works as well. At the same time, we guaranteed our largest number of loans last year, while preventing the largest number of foreclosures, the VA loan program maintained the second highest satisfaction rating in J.D. Power's Primary Mortgage Origination Satisfaction Study, significantly higher than the industry average.    The VA loan is not a good loan, it is a great loan. VA loans are viewed by lenders as safe and viable and viewed by veterans as an important financial benefit that helps them obtain a home for their families. Additionally, the work we have done to streamline policies and procedures in the SAH Program have enabled us to process a record number of grants for veterans who want to live independently in their own homes.    We have done some amazing things over the past few years. But could we do better? Of course we could. We can always do better. And no matter how successful we have been, we are always looking forward to see how we can make the program successful for veterans a decade from now. To that end, we are focusing on a number of initiatives that will empower veterans with information and access to innovative, effective, high quality products and services.    We have made incredible progress in our ability to manage, market, and sell foreclosed properties, and we have been able to increase our return on sale to almost 90 percent while decreasing our time in inventory to under 120 days.    We created a Federal Housing Agency Task Force, where FHA, USDA, VA, and others meet regularly to talk about best practices in the mortgage industry. And we are happy to report that USDA thought our processes were so good that they asked us to start managing and marketing their REO properties. And in the past three months, we have already made inroads in selling their properties, and they look to save about $10 million a year by using our processes.    Finally, Mr. Chairman, I would like to leave you with three thoughts about the impact our program has on veterans, on the taxpayers, and on the U.S. housing market. The record 631,000 borrowers obtaining a VA guaranteed home loan last year enjoyed an interest rate that was on average more than a quarter point below the rate for conventional loans. In addition to the longstanding no downpayment feature of VA loans, because they require no mortgage insurance premiums, those 631,000 borrowers saved over $40 billion in their mortgage payments for the life of their loans. Even here in D.C. that is serious money. The savings in downpayment and mortgage insurance are a strong benefit to veterans who may need those funds in the future to overcome unforeseen financial obstacles.    Since 2009, we have worked with private sector loan servicers to help over half a million veterans and their families retain their homes or avoid foreclosure, helping a record 90,000 last year alone.    And finally, in the past three years, we have helped over 4,000 severely disabled veterans build or adapt homes to help them live independently in the house of their choosing. And the 1,800 we helped last year represents almost a 50 percent increase from the record setting year before.    Obtain, retain, and adapt. It is that simple. Mr. Chairman, I appreciate the opportunity to speak today. I would like to thank the Subcommittee for your support of our veterans and for the productive working relationship that we have had with your Committee Members and your staff. I will continue to identify opportunities to enhance our program and stand ready to provide any information or technical assistance that the Subcommittee requires on ideas the members believe would help deliver our benefits to our veterans. This concludes my testimony.    [The prepared statement of Mike Frueh appears in the Appendix]</t>
-  </si>
-  <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Radewagen. [Presiding] I thank the panel for their testimony and I now recognize myself for five minutes of questions.    Ms. Meadows, can you please expand on your suggestion for VA to enter into a pilot program that would authorize a veteran to borrow money to rehabilitate and renovate their homes?</t>
@@ -610,11 +583,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -634,13 +605,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -662,11 +631,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -686,13 +653,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -714,11 +679,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -738,13 +701,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -766,11 +727,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -792,11 +751,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -816,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -844,11 +799,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -868,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -896,11 +847,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -920,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -946,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -972,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -998,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1024,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1050,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1076,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1102,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1128,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1154,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1180,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1206,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1232,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1258,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1284,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1310,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1336,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1362,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1388,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1414,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1440,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1466,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1492,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1518,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1544,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1570,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1596,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1622,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1648,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1674,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1700,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Good afternoon, everyone, and the Subcommittee will come to order. Chairman Wenstrup has a scheduling conflict and apologizes for not being able to join us today. I am pleased that we were still able to reschedule this important hearing following the snowstorm that caused us to postpone it last month.    The subject of today's hearing is the Loan Guaranty Service of the Department of Veterans Affairs. The major mission of this service is the administration of the VA Home Loan Program. This benefit was originally authorized by the Servicemembers' Readjustment Act of 1944 and has provided over 22 million loans to veterans since its inception. While the home loan program is a wonderful benefit that helps veterans achieve their piece of the American dream, it is also a win-win for taxpayers. Unlike most other VA benefits programs, the home loan program operates as a partnership between the VA and the private mortgage industry. It is because of this partnership and the VA's high underwriting standards that VA-backed loans consistently have one of the lowest foreclosure and delinquency rates in the country.    While the benefit provides a great service to veterans, there is always room for improvement. I am concerned there are veterans who are unaware of this benefit and I look forward to hearing from the VA about their outreach efforts. I am also concerned that the current cap on loan guaranty amounts excludes as many as 12,000 veterans who live in high cost areas from using this benefit. Yesterday, the House passed a version of Mr. Zeldin's legislation that removed this cap. I am hopeful that our colleagues in the Senate will consider this proposal quickly and send it to the President's desk.    The other issue we will examine this afternoon is the administration of VA's Specially Adaptive Housing Program that provides grant funding for severely injured veterans to adapt their homes to make them more accessible for their needs. Some of our witnesses have raised concerns about the amount of paperwork and processing delays associated with this benefit. While I understand there is a need to examine each veteran's circumstances to appropriately fund the adaptation that fits their needs, we must strive to improve timeliness of service for all veterans.    Finally, I would like to commend Mr. Frueh and the staff of VA's Home Loan Guaranty Service for their dedication and their willingness to work with the Members and staff of this Subcommittee. They truly represent the model for positive interactions with Congress, and I wish other parts of the department would take a page out of their play book.    With that, it gives me great pleasure to recognize Mr. Takano for any opening remarks he may have.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. The VA's Home Loan Guaranty Program leverages the non-government world of realtors, lenders, builders, and servicers with the veterans who want to buy a home. Because the government protects lenders from loss on these loans, and because of the safeguards built into the law barring lenders from entering into loans that are risky, more VA loans go to closing than any other product in the industry. Veterans are able to find the homes they want and get into them with a minimum of time and hassle, clearly a win-win for all involved.    Today's hearing is a check-in on this popular program as well as on the Specially Adaptive Housing Program, which helps service-connected disabled veterans build or adapt homes so they can live with greater ease after being catastrophically injured. The Specially Adaptive Housing Program has seen an increase of 65 percent since fiscal year 2013. Today we will hear how VA's improvements in outreach have contributed to this increase, and what is needed in terms of funding and staffing to meet the challenges ahead if growth continues at that pace.    Both programs embody successful public-private partnerships, and I think that makes all of us happy here. I want to thank the witnesses for being here today and I look forward to their testimony. Thank you, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Ansley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ansley. Thank you, Representative Costello, Ranking Member Takano, and Members of the Subcommittee. Paralyzed Veterans of America would like to thank you for the opportunity to testify this afternoon regarding the Department of Veterans Affairs Loan Guaranty and Specially Adaptive Housing Grant Programs. Our testimony this afternoon will focus on VA's Adaptive Housing Grant Programs.    PVA's members are veterans who are catastrophically disabled by a spinal cord injury or disease. Many of them have benefitted from VA's Specially Adaptive Housing or SAH Grant Program. Providing a catastrophically disabled veteran with an accessible home is an investment that pays dividends in lower health and long term care costs. We hope that every effort will be made to strengthen VA's Adaptive Housing Program and increase the benefits available for these veterans by making investments in staffing, streamlining and expediting grant processing for veterans with terminal illnesses, and improving outreach.    Investments in staffing are needed to increase the number of SAH agents serving veterans. In many parts of the country, inadequate staffing contributes to delays in processing grants and results in poor customer service for veterans. According to PVA's service officers, many veterans have a difficult time contacting their SAH agents as phone calls and emails are not returned in a timely manner. PVA believes that veterans' inability to connect with their SAH agents is not only unfair to them, but also to these agents who are sincerely trying to serve veterans despite too many tasks and too few resources. Insufficient staffing also leads to retention problems as agents leave their positions due to excessive workload and extensive travel requirements. PVA's service officers report frequent turnover, which overburdens agents who must carry increased workloads when other agents leave. In addition, some agents cover large geographic areas and travel hundreds of miles one way to meet the eligible veterans, which also leads to delays in responding to veterans and processing grants.    One of the biggest challenges PVA encounters in the SAH Grant Program is the length of time it takes for grants to be processed and approved. This is especially true for veterans living with amyotrophic lateral sclerosis, or ALS. Veterans with ALS are critical users of the SAH Grant Program and the housing adaptation assistance it provides. VA's SAH grant process, however, is not well suited to veterans with rapidly changing diseases like ALS. As a result, it may be difficult for a veteran with ALS to get the adaptations he or she needs when he or she needs them.    In its recommendations to the 114th Congress, the coauthors of the independent budget, which include PVA, Disabled American Veterans, and the Veterans of Foreign Wars, recommended that VA expedite these grants for veterans who are terminally ill, including those who have ALS. This includes encouraging the use of waivers to prevent adaptations that are unneeded due to the veteran's level of disability.    Ultimately, the SAH Grant Program must be flexible enough to assist veterans who have relatively static disabilities such as spinal cord injuries, and those who have rapidly changing diseases such as ALS.    Delays in processing grants for veterans with diseases such as ALS can also prevent these veterans' families from accessing the mortgage protection that is available through the VA's Veterans Mortgage Life Insurance, or VMLI program. The VMLI program is designed to provide a mortgage insurance option for veterans who otherwise would not be able to seek such coverage. Coverage begins when an eligible veteran receives final approval of the grant. VMLI must be available to these veterans earlier in the grant process. One incremental change would be to approve VMLI at the same time as the final grant instead of waiting until funding is in escrow. Another option would be to approve those that are eligible for VMLI coverage as soon as VA determines that they meet all applicable requirements with the exception of the final approval of the adaptive housing grant.    PVA strongly supports VA's adaptive housing programs because the benefits available through this program are not only life-changing, but also life-saving.    When a veteran is determined by VA to be eligible for ancillary benefits including adaptive housing, VA provides the veteran with a decision that includes information about these benefits, and such a notice typically includes the requisite forms to apply. We have noticed, however, that the required forms are not always provided with the notice of eligibility and for veterans who are not represented by a veterans service organization like PVA, it may be difficult for them to navigate the sea of benefits for which they are eligible.    PVA provides significant outreach related to the benefits of adaptive housing. Our service officers communicate with our veterans to ensure they understand the benefit and the importance of the program. We also seek to increase awareness by providing information on our Web site, and in our meetings, and in our membership magazine. We also work to provide information about how to design a wheelchair accessible for home and we support efforts to increase affordable accessible housing for all people with disabilities.    We appreciate the Subcommittee's focus on VA's adaptive housing program. We hope additional resources will be available, and we thank you for the opportunity to share our thoughts today.    [The prepared statement of Heather Ansley appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you. Mr. Meglathery?</t>
   </si>
   <si>
+    <t>Meglathery</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meglathery. Representative Costello, Ranking Member Takano, and other distinguished Members of the Subcommittee, thank you for giving VetsFirst the opportunity to testify regarding VA's Loan Guaranty and Specially Adaptive Housing SAH Grant Programs.    VetsFirst has represented our disabled veterans, their families, and their caretakers since 1946 when paralyzed World War II veterans came together to claim their rights. We advocate for the programs, services, and disability rights that help all generations of veterans with disabilities remain independent and fulfill their desire to reintegrate into society. Today through our parent organization, United Spinal Association, we are not only a VA-recognized national veterans service organization, we are a leader in advocacy for all people with disabilities. We are honored to have the opportunity to testify about the VA's Loan Guaranty and SAH Grant Programs and offer some suggestions for improvement.    The VA's Loan Guaranty Program is a critical benefit to veterans across the Nation and it is an example of what the VA is doing right by veterans. More than 80 percent of veterans utilize this program as a result of its affordability and ease of use. VA's delinquency rate is quite low as a result of the holistic approach to ascertain the veteran's income based on monthly expenses. On a personal note, I have taken advantage of this benefit, and it allowed me to purchase a home in an area with an extremely high cost of living.    From the perspective of the VSO, this benefit is one of ease. We just determine the eligibility of the veteran, and the lender does the remainder of the work. It is an example of a program that supports VetsFirst's core principle one of independence, and core principle two of timely access to VA benefits.    VetsFirst supports all programs that are designed to enhance the independence of veterans with disabilities. For this reason, community integration and independence is our first core principle. The ability to own a home that is adapted to the unique needs of each individual is critical for both the emotional and physical well-being of the veteran. VetsFirst wholeheartedly backs SAH. We would like to highlight areas where we see that improvements are warranted and would make this program even more successful.    Currently, both SAH and Vocational Rehabilitation and Employment Program are in the business of housing modifications for veterans. VetsFirst believes this is a less efficient way to utilize limited resources. SAH staff are experts in the arena of home modification. While VR&amp;E staff are hardworking and diligent, they are not solely focused on this benefit. Additionally, as you know from a prior hearing, VR&amp;E staff are currently overworked with large caseloads supporting vocational rehabilitation. By taking home modification off their portfolio, VR&amp;E would be able to focus on their area of expertise.    In the last few years, SAH has seen an increase in approved grants. The addition of VR&amp;E's caseload would add to that growing number. For this reason, VetsFirst would like to emphasize its desire to see that SAH is fully funded and staffed to support this upward trend, and would like to see that commensurate with any addition of the VR&amp;E caseload.    VetsFirst does not advocate removing VR&amp;E from the process altogether. If a veteran is getting vocational rehabilitation in conjunction with home modifications, VetsFirst recommends a three-way dialogue amongst the veterans, SAH, and VR&amp;E personnel.    Currently, SAH gives the veterans the chance to choose which contractor to use for home modification. VR&amp;E does not. We recommend shifting VR&amp;E's home modification to SAH. Giving the veteran the choice of contractor is important on several levels. It allows the veteran to have the independence they would seek and it allows them to quickly address any problems or complaints with the intent of not having to bring in a third party to settle the dispute.    With regard to grant money that is funded, VetsFirst is concerned that the benefit is not a large enough amount. SAH has been indexed based on inflation. However, we are concerned that the baseline was too low. Currently, the maximum amount of a grant is just under $74,000. Often, with that money, the veteran is forced to make choices as to what to modify and what not, or pay the remainder out of pocket. Another point of concern is the amount of the grant is not based on the cost-of-living, but rather standard across the board. Anyone who has lived in the Washington, D.C. metro area is aware that the cost of living here, for instance, is a lot higher than in Boise, Idaho, for example.    The last point I have to make about SAH based on feedback from my VSOs and our online help desk, Ask VetsFirst, is that the SAH process takes longer than desired. This should not be seen as a criticism of the individual SAH staff members as they work in the local community. It is a way to identify an opportunity to find a solution for rapid response.    VetsFirst would like to express its thanks for the opportunity to testify today on the Loan Guaranty and SAH Programs. We appreciate your leadership on behalf of this Nation's veterans. I would be happy to answer questions.    [The prepared statement of Ross Meglathery appears in the Appendix]</t>
   </si>
   <si>
@@ -82,19 +103,31 @@
     <t xml:space="preserve">    Mr. Costello. I call the hearing back to order and recognize Mr. Danis on behalf of the Mortgage Bankers Association.</t>
   </si>
   <si>
+    <t>Danis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Danis. Chairman Costello and Members of the Subcommittee, thank you for the opportunity to testify this afternoon on VA's Home Loan Guaranty Program.    I have been in the mortgage business for 23 years and have worked with the VA Home Loan Guaranty Program the entire time. My company, Residential Mortgage Corporation, is an independent mortgage lender located in Fayetteville, North Carolina. Approximately 70 percent of the loans we issue are VA loans. In North Carolina with our large military population centered around Fort Bragg, loans guaranteed by VA are an important part of our market. In fact, their use is steadily increasing. In the latest fiscal year alone, more than 14,000 VA purchase loans were originated in our state, up 13 percent from 2014.    For many reasons I am a staunch advocate of the VA Home Loan Guaranty Program. You see, the homes my parents purchased and where my siblings and I were raised were bought with VA loans. In keeping with our family tradition of military service, I served my country, and my first home was financed with a VA loan.    Much like our company, MBA has been a consistent supporter of the VA Home Loan Guaranty Program. Our industry is united in the belief that the VA remains an important and viable program for veterans and active duty military personnel. Providing 100 percent LTV loans is a tremendous benefit to our veterans who have dedicated their lives to serving our country and is crucial in military communities. But as credit markets have tightened and loan underwriting has become stricter, finding low downpayment mortgages has become increasingly difficult.    Despite most VA borrowers not having skin in the game, VA loans have continued to outperform their counterparts. In fact, the VA portfolio has been able to sustain production, and weather the turbulent market largely due to its historically conservative underwriting standards which includes a residual income test. VA mortgages have always been fully documented, and fully underwritten loans and owner occupied properties. That is why they continue to perform so well today.    Additionally, the borrowers who use the VA program are as diverse as the entire U.S. population. According to VA's 2015 Annual Benefits Report, African Americans comprise 10.6 percent of VA loans; American Indian and Alaskan Natives 8.3; Hispanics 7.8; and Asian and Pacific Islanders 2.6 percent.    In our written testimony, MBA offers a number of policy recommendations for improving VA programs. Chief, among them, we urge the VA to issue a final qualified mortgage rule that establishes clear bright lines for VA lending, and once the rule is issued, we hope that they will permit an appropriate implementation period so that smaller lenders like our company have the time we need to test our systems and ensure we are in full compliance.    MBA also calls on Congress to reauthorize the extended foreclosure protections afforded to active duty military by the Servicemembers' Civil Relief Act, or SCRA. During the financial crisis, SCRA's foreclosure moratorium for active duty military members was extended from three years to a year. Unfortunately, that important consumer protection lapsed at the end of last year. In our view, it should be extended immediately and ultimately made permanent.    I want to conclude my testimony by commending VA and its excellent staff for the collaborative approach they take to policy making, as well as their overall emphasis on maintaining open lines of communication with our industry. We are grateful for our strong partnership, and look forward to continuing to work together on the issues I have outlined here today.    Once again, I want to thank you for holding this hearing and shining a spotlight on the importance of this vital path to home ownership. We look forward to working with you to help our members of our military, past and present, achieve the American dream.    [The prepared statement of James H. Danis appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Danis. Ms. Meadows testifying on behalf of the National Association of Realtors, welcome.</t>
   </si>
   <si>
+    <t>Meadows</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meadows. Good afternoon. I have been a realtor in North Central Florida for 33 years. I serve in a volunteer position as the 2016 Vice President of the National Association of Realtors, and represent its more than one million members working in all aspects of real estate.    The National Association of Realtors is a strong supporter of housing opportunities for veterans. According to the U.S. Census, there were 19.3 million veterans in the United States in 2014 and 2015, and one in five home buyers was a veteran or active duty servicemember according to our NAR survey.    In 2015, the homeownership rate was 76 percent for veterans, more than 12 points above the national average. The Department of Veterans Affairs Home Loan Guaranty Program serves a large population and has been doing it well for over 70 years, including in the aftermath of the recent recession. VA's strong, yet flexible underwriting allows veterans the ability to purchase a home of their own without depleting their savings. More than 82 percent of veterans utilize the zero downpayment option provided by the VA.    Despite this VA delinquency, rates are very low, comparable even to today's tight conventional lending. Despite all the talk about the skin in the game, loans with appropriate underwriting, especially VA's use of the residual income test, and zero downpayment can successfully balance risk, and provide sustainable homeownership.    A realtor in Atlanta once told me the story of a veteran who lost his job, and as a result his home, during the Great Recession. When he found a new job, he moved with his family to Atlanta. He worked to rebuild his credit and was able to use his VA guaranty to buy a home for his family just two years after being out of work and down on his luck. This would have been impossible without the VA.    VA also protects their borrowers. Extensive counseling, and active negotiating helps veterans who run into financial difficulty. Since 2009, the VA has prevented more than half a million veterans and their survivors from losing their homes, while saving our taxpayers more than $16 billion in claims payments.    NAR also supports grant programs that allow disabled veterans to own a home that accommodates their needs. VA provides two types of grants to servicemembers and veterans with service-connected disabilities to help purchase or construct an adapted home or modify an existing home to accommodate a disability. These grants provide a significant benefit that allows our disabled veterans to retain their independence.    We support the comments by the two veterans service organizations urging that staffing and financial levels are sufficient to operate the program efficiently.    In recent years, this Committee has made tweaks to the home loan program to make it even more useful for veterans. The National Association of Realtors is here today to offer several other changes that could further enhance the program. Number one, consider higher cost loan limits. The VA Home Loan Guaranty Program is unique. It is not simply a Federal loan program, it is an entitlement promised to our military members in return for their service to our Nation. Veterans should be able to purchase a home wherever they choose to live and should not be prevented from using their entitlement due to the low loan limits. We urge this Committee to increase the VA loan limits and not penalize veterans for geographic differences in the housing market.    Number two, VA fee requirements. NAR believes that VA borrowers should be allowed to negotiate fees with sellers, just as non-VA buyers do, as part of the home purchase transaction. A realtor in Ohio recalled a client who wanted to use his VA benefit to purchase his first home. His lender tried to discourage him from using the VA, saying it was too time consuming and complicated. Moreover, he lost offers on the first several homes he bid on because the seller did not want to deal with the VA requirements. While the veteran was able to buy the home, he ended up using FHA and paying 3.5 percent downpayment to get the home he wanted. We urge VA to create a level playing field and provide veterans with the flexibility to negotiate all fees so they are not disadvantaged when trying to buy a home.    Number three, incentivize a program for renovation and rehabilitation. NAR urges the U.S. Department of Veterans Affairs to incentivize lenders to use existing authority to offer a veterans renovation pilot program, similar to the FHA's 203(k) Program. The 203(k) Program provides a loan for post-renovation appraised value. It is a safe and viable way for veterans to purchase a home that is in need of renovation while still using their guaranty.    The National Association of Realtors strongly supports the VA Home Loan Guaranty Program and the Specially Adaptive Housing Grants. It is our hope that the Subcommittee will support our recommendations for enhancing and improving the VA Home Loan Guaranty Program, so it may be a real benefit to those who bravely served our country.    I would also like to thank the Members of this Subcommittee. Each of you have served your communities and our Nation's veterans very well in areas such as protecting private property rights, advocates for affordable housing, the disabled, domestic violence victims, and those that are less fortunate than us. It has been an honor and I thank you for the opportunity just to be here today.    [The prepared statement of Sherri Meadows appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Ms. Meadows. Mr. Frueh, who is the Director of the VA's Loan Guaranty Service, welcome.</t>
   </si>
   <si>
+    <t>Frueh</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Frueh. Thank you, Mr. Chairman, Ranking Member Takano, and Members of the Subcommittee. Thank you for this opportunity to appear before you today and discuss the status and accomplishments of the Loan Guaranty Program and the Specially Adaptive Housing Program.    Our program's mission is a very simple one. We work to maximize veterans' and servicemembers' opportunity to obtain, retain, and adapt homes. However, our program does not generally make loans, build or sell homes, service loans, nor do we build adapted homes. Instead, we rely on lenders. We rely on realtors, appraisers, servicers, builders, and many others in the mortgage industry to help us deliver these benefits that our veterans have earned, many at great sacrifice.    We have worked relentlessly to increase our program's efficiency and effectiveness by delegating functions to our mortgage industry stakeholders. And I would like to take this opportunity to thank my colleagues at the Mortgage Bankers Association, the National Association of Realtors, and others like the National Association of Home Builders and the Appraisal Institute that have worked with us over the years to help make our program work better for our Nation's veterans.    To ensure this relationship is effective, we maintain a robust oversight and risk management program to secure a world class veteran experience, ensuring these private sector stakeholders adhere to our program goals, values, statutes, and regulations. Our work centers on creating success on all sides of the program. We work constantly to remove barriers veterans may face when using their benefits and ensure that veterans experience high quality consistent services no matter where they live. This work ranges from in home grant consultations with SAH eligible veterans and their families, to creating informational YouTube videos and the Google Hangout feeds, to making prudent policy changes that facilitate timely appraisal and loan closings, more efficient SAH grant processing, or innovative loss mitigation efforts.    We also work to ensure our program is easy to understand and at the forefront of industry processes and technology so that our private sector stakeholders succeed in their missions to make and service loans, construct or renovate homes, and manage and sell properties. On this front, we facilitate daily electronic transmission of loan and property data, we established permanent liaisons to all of the lenders and servicers across the Nation, and we hold regular forums, trainings, and calls, so stakeholders have open access to our leadership to ask questions, and obtain realtime answers and timely explanations of program or industry changes. We built systems that streamlined the flow of information between the industry and VA and provide analytical tools that decrease the time from application to closing so veterans benefit directly.    Through these strong partnerships, our focus on veterans, and our continuous drive to innovate and enhance operations and performance, we have built a high performing program that works for veterans, our stakeholders, and the American taxpayer. We have seen tremendous results from our efforts in removing barriers and enabling access. For the past few years, VA loans have equaled or exceeded industry benchmarks for time to close, percent of applications that actually do close, serious delinquency rate, and foreclosure inventory rate. We know our approach works because by creating ways to help our industry partners more effectively deliver these benefits, they have responded by offering veterans an interest rate lower than that for any other type of loan.    Veterans prove our approach works as well. At the same time, we guaranteed our largest number of loans last year, while preventing the largest number of foreclosures, the VA loan program maintained the second highest satisfaction rating in J.D. Power's Primary Mortgage Origination Satisfaction Study, significantly higher than the industry average.    The VA loan is not a good loan, it is a great loan. VA loans are viewed by lenders as safe and viable and viewed by veterans as an important financial benefit that helps them obtain a home for their families. Additionally, the work we have done to streamline policies and procedures in the SAH Program have enabled us to process a record number of grants for veterans who want to live independently in their own homes.    We have done some amazing things over the past few years. But could we do better? Of course we could. We can always do better. And no matter how successful we have been, we are always looking forward to see how we can make the program successful for veterans a decade from now. To that end, we are focusing on a number of initiatives that will empower veterans with information and access to innovative, effective, high quality products and services.    We have made incredible progress in our ability to manage, market, and sell foreclosed properties, and we have been able to increase our return on sale to almost 90 percent while decreasing our time in inventory to under 120 days.    We created a Federal Housing Agency Task Force, where FHA, USDA, VA, and others meet regularly to talk about best practices in the mortgage industry. And we are happy to report that USDA thought our processes were so good that they asked us to start managing and marketing their REO properties. And in the past three months, we have already made inroads in selling their properties, and they look to save about $10 million a year by using our processes.    Finally, Mr. Chairman, I would like to leave you with three thoughts about the impact our program has on veterans, on the taxpayers, and on the U.S. housing market. The record 631,000 borrowers obtaining a VA guaranteed home loan last year enjoyed an interest rate that was on average more than a quarter point below the rate for conventional loans. In addition to the longstanding no downpayment feature of VA loans, because they require no mortgage insurance premiums, those 631,000 borrowers saved over $40 billion in their mortgage payments for the life of their loans. Even here in D.C. that is serious money. The savings in downpayment and mortgage insurance are a strong benefit to veterans who may need those funds in the future to overcome unforeseen financial obstacles.    Since 2009, we have worked with private sector loan servicers to help over half a million veterans and their families retain their homes or avoid foreclosure, helping a record 90,000 last year alone.    And finally, in the past three years, we have helped over 4,000 severely disabled veterans build or adapt homes to help them live independently in the house of their choosing. And the 1,800 we helped last year represents almost a 50 percent increase from the record setting year before.    Obtain, retain, and adapt. It is that simple. Mr. Chairman, I appreciate the opportunity to speak today. I would like to thank the Subcommittee for your support of our veterans and for the productive working relationship that we have had with your Committee Members and your staff. I will continue to identify opportunities to enhance our program and stand ready to provide any information or technical assistance that the Subcommittee requires on ideas the members believe would help deliver our benefits to our veterans. This concludes my testimony.    [The prepared statement of Mike Frueh appears in the Appendix]</t>
+  </si>
+  <si>
+    <t>Radewagen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Radewagen. [Presiding] I thank the panel for their testimony and I now recognize myself for five minutes of questions.    Ms. Meadows, can you please expand on your suggestion for VA to enter into a pilot program that would authorize a veteran to borrow money to rehabilitate and renovate their homes?</t>
@@ -533,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,1037 +596,1201 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25099.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Costello</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412520</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Takano</t>
@@ -566,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +583,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,1198 +608,1276 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
